--- a/code/EVA/tools/xlsx2json-master/excel/game_config.xlsx
+++ b/code/EVA/tools/xlsx2json-master/excel/game_config.xlsx
@@ -4,25 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fes_message" sheetId="1" r:id="rId1"/>
+    <sheet name="room_config" sheetId="2" r:id="rId2"/>
+    <sheet name="room_consume_config" sheetId="3" r:id="rId3"/>
+    <sheet name="item_config" sheetId="4" r:id="rId4"/>
+    <sheet name="mission_config" sheetId="5" r:id="rId5"/>
+    <sheet name="statistics_config" sheetId="6" r:id="rId6"/>
+    <sheet name="create_role_config" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>LOGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>消息名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"EGS","PLS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m_Name#id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,7 +54,411 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"PB_LoginAuthUser","UID"</t>
+    <t>房间名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间最大人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间最小人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间删除时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_RoomMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_RoomMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_RoomDeleteTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_RoomIcon#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_RoomName#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_RoomDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名字</t>
+  </si>
+  <si>
+    <t>消耗道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ConsumeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ConsumeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_GameCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ConsumeDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_RoomName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ_501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ_502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ_501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ_502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣点麻将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴金麻将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西麻将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_CREATE_ROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SSE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ItemCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ItemKind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ItemIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务奖励描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务奖励ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否每日刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_MissionIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_MissionContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_MissionRewardContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_MissionCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_MissionRewardID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_MissionStartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_MissionEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便拿拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_MissionIsDayRefresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_MissionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_StatisticsID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_StatisticsContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡牌次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_NickName</t>
+  </si>
+  <si>
+    <t>m_HeadID</t>
+  </si>
+  <si>
+    <t>guset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_AutoID#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_AddItem#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      {m_ItemID:100000,m_ItemCount:100},
+     {m_ItemID:100001,m_ItemCount:100}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ROLEID","PROTOBUF.PB_CreateRoom"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ROLEID"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GSE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ROLEID","PROTOBUF.PB_CreateRoom"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ROLEID","PROTOBUF.PB_MJOutCard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ROLEID","PROTOBUF.PB_MJUserOperate"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续下一局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选择权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户出牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ_SR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ_OC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ_SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ_CG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG_JOIN_ROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ConsumeID#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_ItemID#id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +466,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +498,29 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -124,12 +545,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,9 +579,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -464,44 +908,114 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1">
       <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -509,4 +1023,574 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="33.375" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="9" customWidth="1"/>
+    <col min="3" max="4" width="27.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="31.875" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="34.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9">
+        <v>100000</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22" style="9" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="34.25" style="9" customWidth="1"/>
+    <col min="8" max="8" width="29.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="32.75" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>100</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4324234</v>
+      </c>
+      <c r="I3" s="9">
+        <v>43434</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="68.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="52.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="172.5" customHeight="1">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>